--- a/inputfiles/Pine8th/params_Pine8th.xlsx
+++ b/inputfiles/Pine8th/params_Pine8th.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/403ae09839abb1f6/Documents/GitHub/SubsurfaceSinks/inputfiles/Pine8th/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\SubsurfaceSinks\inputfiles\Pine8th\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{7F7F5891-58BC-4AB9-9DEE-3E33C4F6B2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3A3CC1C-5691-4861-B72A-1D2E0C3BF0EA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B67FB18-3354-44FF-A984-079DFE15A273}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="14505" windowHeight="6510" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="181">
   <si>
     <t>val</t>
   </si>
@@ -560,15 +549,6 @@
     <t>Calibrated Kf,Kn, depth = [0.20297723, 0.1247891 , 0.1541343 ]</t>
   </si>
   <si>
-    <t>0.6,2.317,7.239,14.905,21.8,21.8,21.8,21.8,21.8,21.8,21.8,21.8,21.8,21.8,21.8</t>
-  </si>
-  <si>
-    <t>0,0.014585,0.062365,0.173085,0.35661,0.57461,1.01061,1.22861,1.44661,1.66461,1.88261,2.10061,2.31861,2.53661,2.75461</t>
-  </si>
-  <si>
-    <t>0,0.01,0.02,0.03,0.04,0.05,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15</t>
-  </si>
-  <si>
     <t>CoV design guidelines</t>
   </si>
   <si>
@@ -576,6 +556,18 @@
   </si>
   <si>
     <t>Calibrated</t>
+  </si>
+  <si>
+    <t>0,0.014585,0.062365,0.173085,0.35661,0.57461,1.01061,1.22861,1.44661,1.66461,1.88261,2.10061,2.31861,2.53661,2.75461,7.7686</t>
+  </si>
+  <si>
+    <t>0,0.01,0.02,0.03,0.04,0.05,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.38</t>
+  </si>
+  <si>
+    <t>0.6,2.317,7.239,14.905,21.8,21.8,21.8,21.8,21.8,21.8,21.8,21.8,21.8,21.8,21.8,21.8</t>
+  </si>
+  <si>
+    <t>famendment</t>
   </si>
 </sst>
 </file>
@@ -1002,19 +994,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD8B427-7822-4B11-BEA9-14D81D15628E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S77"/>
+  <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1617,7 +1609,7 @@
         <v>98</v>
       </c>
       <c r="B45" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C45" t="s">
         <v>99</v>
@@ -1636,7 +1628,7 @@
         <v>97</v>
       </c>
       <c r="B46" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C46" t="s">
         <v>100</v>
@@ -1655,7 +1647,7 @@
         <v>161</v>
       </c>
       <c r="B47" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C47" t="s">
         <v>157</v>
@@ -1758,7 +1750,7 @@
         <v>119</v>
       </c>
       <c r="D55" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -1772,7 +1764,7 @@
         <v>120</v>
       </c>
       <c r="D56" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -1802,7 +1794,7 @@
         <v>117</v>
       </c>
       <c r="D58" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -1816,7 +1808,7 @@
         <v>116</v>
       </c>
       <c r="D59" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -2064,7 +2056,7 @@
         <v>144</v>
       </c>
       <c r="D76" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -2073,6 +2065,14 @@
       </c>
       <c r="B77" s="10">
         <v>2.8152436700000001E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" t="s">
+        <v>180</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
